--- a/kiwoom_ats/python/src/resources/config/config_stock.xlsx
+++ b/kiwoom_ats/python/src/resources/config/config_stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worms\PycharmProjects\Kiwoom-ATS\kiwoom_ats\python\src\resources\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC31DAE-0D2B-4F49-8C71-9B4C174ECF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594774D9-4B62-42E0-A433-0ADD5AD3BF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>B1</t>
   </si>
@@ -100,11 +100,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>백테스팅</t>
+    <t>백테스트를 위한 모드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>y</t>
+    <t>값(y,n)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1925,7 +1925,7 @@
   <dimension ref="C4:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1962,9 +1962,6 @@
       <c r="G8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
@@ -1972,6 +1969,12 @@
       </c>
       <c r="D9" s="15" t="s">
         <v>12</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.45">

--- a/kiwoom_ats/python/src/resources/config/config_stock.xlsx
+++ b/kiwoom_ats/python/src/resources/config/config_stock.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worms\PycharmProjects\Kiwoom-ATS\kiwoom_ats\python\src\resources\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/1004440/PycharmProjects/Kiwoom-ATS/kiwoom_ats/python/src/resources/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594774D9-4B62-42E0-A433-0ADD5AD3BF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CDD189-EB13-C745-9446-B5111D42DDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="trading" sheetId="2" r:id="rId2"/>
-    <sheet name="setting" sheetId="3" r:id="rId3"/>
+    <sheet name="backtesting" sheetId="4" r:id="rId2"/>
+    <sheet name="trading" sheetId="2" r:id="rId3"/>
+    <sheet name="setting" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>B1</t>
   </si>
@@ -58,10 +59,6 @@
   </si>
   <si>
     <t>계좌번호</t>
-  </si>
-  <si>
-    <t>55515151511</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>State</t>
@@ -107,15 +104,23 @@
     <t>값(y,n)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111111111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,7 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -469,23 +474,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -503,13 +508,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,13 +523,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -534,14 +539,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -830,18 +835,18 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="9" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="9" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12.58203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="16" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="16" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -850,7 +855,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="14"/>
@@ -859,7 +864,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="14"/>
@@ -868,7 +873,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="14"/>
@@ -877,8 +882,8 @@
       <c r="F4" s="17"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" ht="17.25" customHeight="1" thickBot="1"/>
+    <row r="7" spans="1:13" ht="17.25" customHeight="1">
       <c r="B7" s="1"/>
       <c r="C7" s="12"/>
       <c r="D7" s="36" t="s">
@@ -886,13 +891,13 @@
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="37"/>
       <c r="I7" s="8"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:13" ht="18" thickBot="1">
       <c r="A8"/>
       <c r="B8" s="31" t="s">
         <v>2</v>
@@ -901,25 +906,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="F8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="G8" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="18"/>
       <c r="B9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>16</v>
       </c>
       <c r="D9" s="28">
         <v>300</v>
@@ -934,7 +939,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13">
       <c r="A10" s="18"/>
       <c r="B10" s="2"/>
       <c r="C10" s="13"/>
@@ -943,7 +948,7 @@
       <c r="F10" s="19"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13">
       <c r="A11" s="18"/>
       <c r="B11" s="2"/>
       <c r="C11" s="13"/>
@@ -952,7 +957,7 @@
       <c r="F11" s="19"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13">
       <c r="A12" s="18"/>
       <c r="B12" s="3"/>
       <c r="C12" s="13"/>
@@ -961,7 +966,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13">
       <c r="A13" s="18"/>
       <c r="B13" s="3"/>
       <c r="C13" s="13"/>
@@ -970,7 +975,7 @@
       <c r="F13" s="19"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13">
       <c r="A14" s="18"/>
       <c r="B14" s="3"/>
       <c r="C14" s="13"/>
@@ -979,7 +984,7 @@
       <c r="F14" s="19"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13">
       <c r="A15" s="18"/>
       <c r="B15" s="3"/>
       <c r="C15" s="13"/>
@@ -988,7 +993,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13">
       <c r="A16" s="18"/>
       <c r="B16" s="2"/>
       <c r="C16" s="13"/>
@@ -997,7 +1002,7 @@
       <c r="F16" s="19"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7">
       <c r="A17" s="18"/>
       <c r="B17" s="2"/>
       <c r="C17" s="13"/>
@@ -1006,7 +1011,7 @@
       <c r="F17" s="19"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7">
       <c r="A18" s="18"/>
       <c r="B18" s="2"/>
       <c r="C18" s="13"/>
@@ -1015,7 +1020,7 @@
       <c r="F18" s="19"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7">
       <c r="A19" s="18"/>
       <c r="B19" s="3"/>
       <c r="C19" s="13"/>
@@ -1024,7 +1029,7 @@
       <c r="F19" s="19"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7">
       <c r="A20" s="18"/>
       <c r="B20" s="3"/>
       <c r="C20" s="13"/>
@@ -1033,7 +1038,7 @@
       <c r="F20" s="19"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7">
       <c r="A21" s="18"/>
       <c r="B21" s="3"/>
       <c r="C21" s="13"/>
@@ -1042,7 +1047,7 @@
       <c r="F21" s="19"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7">
       <c r="A22" s="18"/>
       <c r="B22" s="3"/>
       <c r="C22" s="13"/>
@@ -1051,7 +1056,7 @@
       <c r="F22" s="19"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7">
       <c r="A23" s="18"/>
       <c r="B23" s="3"/>
       <c r="C23" s="13"/>
@@ -1060,7 +1065,7 @@
       <c r="F23" s="19"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7">
       <c r="A24" s="18"/>
       <c r="B24" s="3"/>
       <c r="C24" s="13"/>
@@ -1069,7 +1074,7 @@
       <c r="F24" s="19"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7">
       <c r="A25" s="18"/>
       <c r="B25" s="3"/>
       <c r="C25" s="13"/>
@@ -1078,7 +1083,7 @@
       <c r="F25" s="19"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7">
       <c r="A26" s="18"/>
       <c r="B26" s="3"/>
       <c r="C26" s="13"/>
@@ -1087,7 +1092,7 @@
       <c r="F26" s="19"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7">
       <c r="A27" s="18"/>
       <c r="B27" s="3"/>
       <c r="C27" s="13"/>
@@ -1096,7 +1101,7 @@
       <c r="F27" s="19"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="A28" s="18"/>
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
@@ -1105,569 +1110,569 @@
       <c r="F28" s="21"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="F30"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="F31"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="F32"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="F33"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:9">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="F34"/>
     </row>
-    <row r="35" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:9" ht="17.25" customHeight="1">
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
       <c r="F35"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:9">
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="F36"/>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:9">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="F37"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:9">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="F38"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:9">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="F39"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:9">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
       <c r="F40"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:9">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:9">
       <c r="B42"/>
       <c r="C42" s="7"/>
       <c r="D42"/>
       <c r="F42"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:9">
       <c r="B43"/>
       <c r="C43" s="7"/>
       <c r="D43"/>
       <c r="F43"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:9">
       <c r="B44"/>
       <c r="C44" s="7"/>
       <c r="D44"/>
       <c r="F44"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:9">
       <c r="B45"/>
       <c r="C45" s="7"/>
       <c r="D45"/>
       <c r="F45"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:9">
       <c r="B46"/>
       <c r="C46" s="7"/>
       <c r="D46"/>
       <c r="F46"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:9">
       <c r="B47"/>
       <c r="C47" s="7"/>
       <c r="D47"/>
       <c r="F47"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:9">
       <c r="B48"/>
       <c r="C48" s="7"/>
       <c r="D48"/>
       <c r="F48"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:6">
       <c r="B49"/>
       <c r="C49" s="7"/>
       <c r="D49"/>
       <c r="F49"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:6">
       <c r="B50"/>
       <c r="C50" s="7"/>
       <c r="D50"/>
       <c r="F50"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:6">
       <c r="B51"/>
       <c r="C51" s="7"/>
       <c r="D51"/>
       <c r="F51"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:6">
       <c r="B52"/>
       <c r="C52" s="7"/>
       <c r="D52"/>
       <c r="F52"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:6">
       <c r="B53"/>
       <c r="C53" s="7"/>
       <c r="D53"/>
       <c r="F53"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:6">
       <c r="B54"/>
       <c r="C54" s="7"/>
       <c r="D54"/>
       <c r="F54"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:6">
       <c r="B55"/>
       <c r="C55" s="7"/>
       <c r="D55"/>
       <c r="F55"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:6">
       <c r="B56"/>
       <c r="C56" s="7"/>
       <c r="D56"/>
       <c r="F56"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:6">
       <c r="B57"/>
       <c r="C57" s="7"/>
       <c r="D57"/>
       <c r="F57"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:6">
       <c r="B58"/>
       <c r="C58" s="7"/>
       <c r="D58"/>
       <c r="F58"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:6">
       <c r="B59"/>
       <c r="C59" s="7"/>
       <c r="D59"/>
       <c r="F59"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:6">
       <c r="B60"/>
       <c r="C60" s="7"/>
       <c r="D60"/>
       <c r="F60"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:6">
       <c r="B61"/>
       <c r="C61" s="7"/>
       <c r="D61"/>
       <c r="F61"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:6">
       <c r="B62"/>
       <c r="C62" s="7"/>
       <c r="D62"/>
       <c r="F62"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:6">
       <c r="B63"/>
       <c r="C63" s="7"/>
       <c r="D63"/>
       <c r="F63"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:6">
       <c r="B64"/>
       <c r="C64" s="7"/>
       <c r="D64"/>
       <c r="F64"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:6">
       <c r="B65"/>
       <c r="C65" s="7"/>
       <c r="D65"/>
       <c r="F65"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:6">
       <c r="C66" s="7"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:6">
       <c r="C67" s="7"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:6">
       <c r="C68" s="7"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:6">
       <c r="C69" s="7"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:6">
       <c r="C70" s="7"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:6">
       <c r="C71" s="7"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:6">
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:6">
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:6">
       <c r="C74" s="7"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:6">
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:6">
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:6">
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:6">
       <c r="C78" s="7"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:6">
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:6">
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="3:3">
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="3:3">
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="3:3">
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="3:3">
       <c r="C84" s="7"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="3:3">
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="3:3">
       <c r="C86" s="7"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="3:3">
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="3:3">
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="3:3">
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="3:3">
       <c r="C90" s="7"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="3:3">
       <c r="C91" s="7"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="3:3">
       <c r="C92" s="7"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="3:3">
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="3:3">
       <c r="C94" s="7"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="3:3">
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="3:3">
       <c r="C96" s="7"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="3:3">
       <c r="C97" s="7"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="3:3">
       <c r="C98" s="7"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="3:3">
       <c r="C99" s="7"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="3:3">
       <c r="C100" s="7"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="3:3">
       <c r="C101" s="7"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="3:3">
       <c r="C102" s="7"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="3:3">
       <c r="C103" s="7"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="3:3">
       <c r="C104" s="7"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="3:3">
       <c r="C105" s="7"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="3:3">
       <c r="C106" s="7"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="3:3">
       <c r="C107" s="7"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="3:3">
       <c r="C108" s="7"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="3:3">
       <c r="C109" s="7"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="3:3">
       <c r="C110" s="7"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="3:3">
       <c r="C111" s="7"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="3:3">
       <c r="C112" s="7"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="3:3">
       <c r="C113" s="7"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="3:3">
       <c r="C114" s="7"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="3:3">
       <c r="C115" s="7"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="3:3">
       <c r="C116" s="7"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="3:3">
       <c r="C117" s="7"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="3:3">
       <c r="C118" s="7"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="3:3">
       <c r="C119" s="7"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="3:3">
       <c r="C120" s="7"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="3:3">
       <c r="C121" s="7"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="3:3">
       <c r="C122" s="7"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="3:3">
       <c r="C123" s="7"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="3:3">
       <c r="C124" s="7"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="3:3">
       <c r="C125" s="7"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="3:3">
       <c r="C126" s="7"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="3:3">
       <c r="C127" s="7"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="3:3">
       <c r="C128" s="7"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="3:3">
       <c r="C129" s="7"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="130" spans="3:3">
       <c r="C130" s="7"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="131" spans="3:3">
       <c r="C131" s="7"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="132" spans="3:3">
       <c r="C132" s="7"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="133" spans="3:3">
       <c r="C133" s="7"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="134" spans="3:3">
       <c r="C134" s="7"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="135" spans="3:3">
       <c r="C135" s="7"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="136" spans="3:3">
       <c r="C136" s="7"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="137" spans="3:3">
       <c r="C137" s="7"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="138" spans="3:3">
       <c r="C138" s="7"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="139" spans="3:3">
       <c r="C139" s="7"/>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="140" spans="3:3">
       <c r="C140" s="7"/>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="141" spans="3:3">
       <c r="C141" s="7"/>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="142" spans="3:3">
       <c r="C142" s="7"/>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="143" spans="3:3">
       <c r="C143" s="7"/>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="144" spans="3:3">
       <c r="C144" s="7"/>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="145" spans="3:3">
       <c r="C145" s="7"/>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="146" spans="3:3">
       <c r="C146" s="7"/>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="147" spans="3:3">
       <c r="C147" s="7"/>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="148" spans="3:3">
       <c r="C148" s="7"/>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="149" spans="3:3">
       <c r="C149" s="7"/>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="150" spans="3:3">
       <c r="C150" s="7"/>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="151" spans="3:3">
       <c r="C151" s="7"/>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="152" spans="3:3">
       <c r="C152" s="7"/>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="153" spans="3:3">
       <c r="C153" s="7"/>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="154" spans="3:3">
       <c r="C154" s="7"/>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="155" spans="3:3">
       <c r="C155" s="7"/>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="156" spans="3:3">
       <c r="C156" s="7"/>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="157" spans="3:3">
       <c r="C157" s="7"/>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="158" spans="3:3">
       <c r="C158" s="7"/>
     </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="159" spans="3:3">
       <c r="C159" s="7"/>
     </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="160" spans="3:3">
       <c r="C160" s="7"/>
     </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="161" spans="3:3">
       <c r="C161" s="7"/>
     </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="162" spans="3:3">
       <c r="C162" s="7"/>
     </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="163" spans="3:3">
       <c r="C163" s="7"/>
     </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="164" spans="3:3">
       <c r="C164" s="7"/>
     </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="165" spans="3:3">
       <c r="C165" s="7"/>
     </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="166" spans="3:3">
       <c r="C166" s="7"/>
     </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="167" spans="3:3">
       <c r="C167" s="7"/>
     </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="168" spans="3:3">
       <c r="C168" s="7"/>
     </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="169" spans="3:3">
       <c r="C169" s="7"/>
     </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="170" spans="3:3">
       <c r="C170" s="7"/>
     </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="171" spans="3:3">
       <c r="C171" s="7"/>
     </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="172" spans="3:3">
       <c r="C172" s="7"/>
     </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="173" spans="3:3">
       <c r="C173" s="7"/>
     </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="174" spans="3:3">
       <c r="C174" s="7"/>
     </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="175" spans="3:3">
       <c r="C175" s="7"/>
     </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="176" spans="3:3">
       <c r="C176" s="7"/>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="177" spans="3:3">
       <c r="C177" s="7"/>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="178" spans="3:3">
       <c r="C178" s="7"/>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="179" spans="3:3">
       <c r="C179" s="7"/>
     </row>
   </sheetData>
@@ -1682,6 +1687,865 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8A9FBF-4EDA-4C4E-93FD-9597C5CD5E29}">
+  <dimension ref="A1:M179"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="6" spans="1:13" ht="17.25" customHeight="1" thickBot="1"/>
+    <row r="7" spans="1:13" ht="17.25" customHeight="1">
+      <c r="B7" s="1"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="I7" s="8"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" ht="18" thickBot="1">
+      <c r="A8"/>
+      <c r="B8" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="18"/>
+      <c r="B9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="28">
+        <v>30</v>
+      </c>
+      <c r="E9" s="29">
+        <v>100</v>
+      </c>
+      <c r="F9" s="28">
+        <v>50</v>
+      </c>
+      <c r="G9" s="29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="18"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="18"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="18"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="18"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="18"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="18"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="18"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="18"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="18"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="18"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="18"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="18"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="18"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="18"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="18"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="18"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="18"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="18"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A28" s="18"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="2:9" ht="17.25" customHeight="1">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="F36"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42"/>
+      <c r="C42" s="7"/>
+      <c r="D42"/>
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43"/>
+      <c r="C43" s="7"/>
+      <c r="D43"/>
+      <c r="F43"/>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44"/>
+      <c r="C44" s="7"/>
+      <c r="D44"/>
+      <c r="F44"/>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45"/>
+      <c r="C45" s="7"/>
+      <c r="D45"/>
+      <c r="F45"/>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46"/>
+      <c r="C46" s="7"/>
+      <c r="D46"/>
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47"/>
+      <c r="C47" s="7"/>
+      <c r="D47"/>
+      <c r="F47"/>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48"/>
+      <c r="C48" s="7"/>
+      <c r="D48"/>
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49"/>
+      <c r="C49" s="7"/>
+      <c r="D49"/>
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50"/>
+      <c r="C50" s="7"/>
+      <c r="D50"/>
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51"/>
+      <c r="C51" s="7"/>
+      <c r="D51"/>
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52"/>
+      <c r="C52" s="7"/>
+      <c r="D52"/>
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53"/>
+      <c r="C53" s="7"/>
+      <c r="D53"/>
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54"/>
+      <c r="C54" s="7"/>
+      <c r="D54"/>
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55"/>
+      <c r="C55" s="7"/>
+      <c r="D55"/>
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56"/>
+      <c r="C56" s="7"/>
+      <c r="D56"/>
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57"/>
+      <c r="C57" s="7"/>
+      <c r="D57"/>
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58"/>
+      <c r="C58" s="7"/>
+      <c r="D58"/>
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59"/>
+      <c r="C59" s="7"/>
+      <c r="D59"/>
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60"/>
+      <c r="C60" s="7"/>
+      <c r="D60"/>
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61"/>
+      <c r="C61" s="7"/>
+      <c r="D61"/>
+      <c r="F61"/>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62"/>
+      <c r="C62" s="7"/>
+      <c r="D62"/>
+      <c r="F62"/>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63"/>
+      <c r="C63" s="7"/>
+      <c r="D63"/>
+      <c r="F63"/>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64"/>
+      <c r="C64" s="7"/>
+      <c r="D64"/>
+      <c r="F64"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65"/>
+      <c r="C65" s="7"/>
+      <c r="D65"/>
+      <c r="F65"/>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="C66" s="7"/>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="C67" s="7"/>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="C68" s="7"/>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="C69" s="7"/>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="C70" s="7"/>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="C71" s="7"/>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="C72" s="7"/>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="C73" s="7"/>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="C74" s="7"/>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="C75" s="7"/>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="C76" s="7"/>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="C77" s="7"/>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="C78" s="7"/>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="C79" s="7"/>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="C80" s="7"/>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="7"/>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="7"/>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="7"/>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="7"/>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85" s="7"/>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86" s="7"/>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87" s="7"/>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="7"/>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="7"/>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90" s="7"/>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="7"/>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="7"/>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" s="7"/>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="7"/>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" s="7"/>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" s="7"/>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" s="7"/>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" s="7"/>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" s="7"/>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="7"/>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" s="7"/>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" s="7"/>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" s="7"/>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" s="7"/>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" s="7"/>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" s="7"/>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" s="7"/>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" s="7"/>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109" s="7"/>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110" s="7"/>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111" s="7"/>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112" s="7"/>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" s="7"/>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114" s="7"/>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" s="7"/>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116" s="7"/>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" s="7"/>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118" s="7"/>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119" s="7"/>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" s="7"/>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121" s="7"/>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" s="7"/>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" s="7"/>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124" s="7"/>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125" s="7"/>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126" s="7"/>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127" s="7"/>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" s="7"/>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" s="7"/>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130" s="7"/>
+    </row>
+    <row r="131" spans="3:3">
+      <c r="C131" s="7"/>
+    </row>
+    <row r="132" spans="3:3">
+      <c r="C132" s="7"/>
+    </row>
+    <row r="133" spans="3:3">
+      <c r="C133" s="7"/>
+    </row>
+    <row r="134" spans="3:3">
+      <c r="C134" s="7"/>
+    </row>
+    <row r="135" spans="3:3">
+      <c r="C135" s="7"/>
+    </row>
+    <row r="136" spans="3:3">
+      <c r="C136" s="7"/>
+    </row>
+    <row r="137" spans="3:3">
+      <c r="C137" s="7"/>
+    </row>
+    <row r="138" spans="3:3">
+      <c r="C138" s="7"/>
+    </row>
+    <row r="139" spans="3:3">
+      <c r="C139" s="7"/>
+    </row>
+    <row r="140" spans="3:3">
+      <c r="C140" s="7"/>
+    </row>
+    <row r="141" spans="3:3">
+      <c r="C141" s="7"/>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142" s="7"/>
+    </row>
+    <row r="143" spans="3:3">
+      <c r="C143" s="7"/>
+    </row>
+    <row r="144" spans="3:3">
+      <c r="C144" s="7"/>
+    </row>
+    <row r="145" spans="3:3">
+      <c r="C145" s="7"/>
+    </row>
+    <row r="146" spans="3:3">
+      <c r="C146" s="7"/>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147" s="7"/>
+    </row>
+    <row r="148" spans="3:3">
+      <c r="C148" s="7"/>
+    </row>
+    <row r="149" spans="3:3">
+      <c r="C149" s="7"/>
+    </row>
+    <row r="150" spans="3:3">
+      <c r="C150" s="7"/>
+    </row>
+    <row r="151" spans="3:3">
+      <c r="C151" s="7"/>
+    </row>
+    <row r="152" spans="3:3">
+      <c r="C152" s="7"/>
+    </row>
+    <row r="153" spans="3:3">
+      <c r="C153" s="7"/>
+    </row>
+    <row r="154" spans="3:3">
+      <c r="C154" s="7"/>
+    </row>
+    <row r="155" spans="3:3">
+      <c r="C155" s="7"/>
+    </row>
+    <row r="156" spans="3:3">
+      <c r="C156" s="7"/>
+    </row>
+    <row r="157" spans="3:3">
+      <c r="C157" s="7"/>
+    </row>
+    <row r="158" spans="3:3">
+      <c r="C158" s="7"/>
+    </row>
+    <row r="159" spans="3:3">
+      <c r="C159" s="7"/>
+    </row>
+    <row r="160" spans="3:3">
+      <c r="C160" s="7"/>
+    </row>
+    <row r="161" spans="3:3">
+      <c r="C161" s="7"/>
+    </row>
+    <row r="162" spans="3:3">
+      <c r="C162" s="7"/>
+    </row>
+    <row r="163" spans="3:3">
+      <c r="C163" s="7"/>
+    </row>
+    <row r="164" spans="3:3">
+      <c r="C164" s="7"/>
+    </row>
+    <row r="165" spans="3:3">
+      <c r="C165" s="7"/>
+    </row>
+    <row r="166" spans="3:3">
+      <c r="C166" s="7"/>
+    </row>
+    <row r="167" spans="3:3">
+      <c r="C167" s="7"/>
+    </row>
+    <row r="168" spans="3:3">
+      <c r="C168" s="7"/>
+    </row>
+    <row r="169" spans="3:3">
+      <c r="C169" s="7"/>
+    </row>
+    <row r="170" spans="3:3">
+      <c r="C170" s="7"/>
+    </row>
+    <row r="171" spans="3:3">
+      <c r="C171" s="7"/>
+    </row>
+    <row r="172" spans="3:3">
+      <c r="C172" s="7"/>
+    </row>
+    <row r="173" spans="3:3">
+      <c r="C173" s="7"/>
+    </row>
+    <row r="174" spans="3:3">
+      <c r="C174" s="7"/>
+    </row>
+    <row r="175" spans="3:3">
+      <c r="C175" s="7"/>
+    </row>
+    <row r="176" spans="3:3">
+      <c r="C176" s="7"/>
+    </row>
+    <row r="177" spans="3:3">
+      <c r="C177" s="7"/>
+    </row>
+    <row r="178" spans="3:3">
+      <c r="C178" s="7"/>
+    </row>
+    <row r="179" spans="3:3">
+      <c r="C179" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="13" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:H29"/>
   <sheetViews>
@@ -1689,42 +2553,42 @@
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C3" s="40" t="s">
+    <row r="3" spans="2:8">
+      <c r="C3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-    </row>
-    <row r="5" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="7" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+    </row>
+    <row r="5" spans="2:8" ht="17.25" customHeight="1"/>
+    <row r="6" spans="2:8" ht="17.25" customHeight="1" thickBot="1"/>
+    <row r="7" spans="2:8" ht="16.5" customHeight="1">
       <c r="B7" s="1"/>
       <c r="C7" s="12"/>
       <c r="D7" s="36" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="37"/>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="41" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="37"/>
       <c r="H7" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="18" thickBot="1">
       <c r="B8" s="31" t="s">
         <v>2</v>
       </c>
@@ -1744,7 +2608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8">
       <c r="B9" s="26"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
@@ -1752,7 +2616,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="29"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:8">
       <c r="B10" s="2"/>
       <c r="C10" s="13"/>
       <c r="D10" s="19"/>
@@ -1760,7 +2624,7 @@
       <c r="F10" s="20"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8">
       <c r="B11" s="2"/>
       <c r="C11" s="13"/>
       <c r="D11" s="19"/>
@@ -1768,7 +2632,7 @@
       <c r="F11" s="20"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:8">
       <c r="B12" s="3"/>
       <c r="C12" s="13"/>
       <c r="D12" s="19"/>
@@ -1776,7 +2640,7 @@
       <c r="F12" s="20"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:8">
       <c r="B13" s="3"/>
       <c r="C13" s="13"/>
       <c r="D13" s="19"/>
@@ -1784,7 +2648,7 @@
       <c r="F13" s="20"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:8">
       <c r="B14" s="3"/>
       <c r="C14" s="13"/>
       <c r="D14" s="19"/>
@@ -1792,7 +2656,7 @@
       <c r="F14" s="20"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:8">
       <c r="B15" s="3"/>
       <c r="C15" s="13"/>
       <c r="D15" s="19"/>
@@ -1800,7 +2664,7 @@
       <c r="F15" s="20"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:8">
       <c r="B16" s="2"/>
       <c r="C16" s="13"/>
       <c r="D16" s="19"/>
@@ -1808,7 +2672,7 @@
       <c r="F16" s="20"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7">
       <c r="B17" s="2"/>
       <c r="C17" s="13"/>
       <c r="D17" s="19"/>
@@ -1816,7 +2680,7 @@
       <c r="F17" s="20"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7">
       <c r="B18" s="2"/>
       <c r="C18" s="13"/>
       <c r="D18" s="19"/>
@@ -1824,7 +2688,7 @@
       <c r="F18" s="20"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7">
       <c r="B19" s="3"/>
       <c r="C19" s="13"/>
       <c r="D19" s="19"/>
@@ -1832,7 +2696,7 @@
       <c r="F19" s="20"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7">
       <c r="B20" s="3"/>
       <c r="C20" s="13"/>
       <c r="D20" s="19"/>
@@ -1840,7 +2704,7 @@
       <c r="F20" s="20"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7">
       <c r="B21" s="3"/>
       <c r="C21" s="13"/>
       <c r="D21" s="19"/>
@@ -1848,7 +2712,7 @@
       <c r="F21" s="20"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7">
       <c r="B22" s="3"/>
       <c r="C22" s="13"/>
       <c r="D22" s="19"/>
@@ -1856,7 +2720,7 @@
       <c r="F22" s="20"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7">
       <c r="B23" s="3"/>
       <c r="C23" s="13"/>
       <c r="D23" s="19"/>
@@ -1864,7 +2728,7 @@
       <c r="F23" s="20"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7">
       <c r="B24" s="3"/>
       <c r="C24" s="13"/>
       <c r="D24" s="19"/>
@@ -1872,7 +2736,7 @@
       <c r="F24" s="20"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7">
       <c r="B25" s="3"/>
       <c r="C25" s="13"/>
       <c r="D25" s="19"/>
@@ -1880,7 +2744,7 @@
       <c r="F25" s="20"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7">
       <c r="B26" s="3"/>
       <c r="C26" s="13"/>
       <c r="D26" s="19"/>
@@ -1888,7 +2752,7 @@
       <c r="F26" s="20"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" ht="17.25" customHeight="1">
       <c r="B27" s="3"/>
       <c r="C27" s="13"/>
       <c r="D27" s="19"/>
@@ -1896,7 +2760,7 @@
       <c r="F27" s="20"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:7" ht="17.25" customHeight="1" thickBot="1">
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
       <c r="D28" s="21"/>
@@ -1904,7 +2768,7 @@
       <c r="F28" s="22"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" ht="17.25" customHeight="1">
       <c r="C29" s="23"/>
       <c r="D29" s="16"/>
       <c r="F29" s="16"/>
@@ -1920,20 +2784,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C4:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="7" max="7" width="15" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:8">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -1941,7 +2805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:8">
       <c r="C5" t="s">
         <v>9</v>
       </c>
@@ -1952,32 +2816,32 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
         <v>23</v>
       </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="3:8">
       <c r="D10" s="15"/>
     </row>
   </sheetData>

--- a/kiwoom_ats/python/src/resources/config/config_stock.xlsx
+++ b/kiwoom_ats/python/src/resources/config/config_stock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/1004440/PycharmProjects/Kiwoom-ATS/kiwoom_ats/python/src/resources/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worms\Kiwoom-ATS\kiwoom_ats\python\src\resources\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CDD189-EB13-C745-9446-B5111D42DDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C5BECF-EBF3-4FCC-9869-F2FB751CAC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="705" windowWidth="24540" windowHeight="19800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>B1</t>
   </si>
@@ -105,11 +105,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>y</t>
+    <t>8093230511</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>111111111</t>
+    <t>KODEX 코스닥150 인버스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -118,9 +122,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,7 +427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -474,23 +478,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -508,13 +512,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -523,13 +527,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -832,21 +836,21 @@
   <dimension ref="A1:M179"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="9" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -855,7 +859,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="14"/>
@@ -864,7 +868,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="14"/>
@@ -873,7 +877,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="14"/>
@@ -882,8 +886,8 @@
       <c r="F4" s="17"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="17.25" customHeight="1" thickBot="1"/>
-    <row r="7" spans="1:13" ht="17.25" customHeight="1">
+    <row r="6" spans="1:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="12"/>
       <c r="D7" s="36" t="s">
@@ -897,7 +901,7 @@
       <c r="I7" s="8"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13" ht="18" thickBot="1">
+    <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="31" t="s">
         <v>2</v>
@@ -918,7 +922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
       <c r="B9" s="26" t="s">
         <v>14</v>
@@ -927,28 +931,40 @@
         <v>15</v>
       </c>
       <c r="D9" s="28">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="E9" s="29">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F9" s="28">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="G9" s="29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="13">
+        <v>251340</v>
+      </c>
+      <c r="D10" s="19">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
+        <v>50</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="2"/>
       <c r="C11" s="13"/>
@@ -957,7 +973,7 @@
       <c r="F11" s="19"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="3"/>
       <c r="C12" s="13"/>
@@ -966,7 +982,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="3"/>
       <c r="C13" s="13"/>
@@ -975,7 +991,7 @@
       <c r="F13" s="19"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="3"/>
       <c r="C14" s="13"/>
@@ -984,7 +1000,7 @@
       <c r="F14" s="19"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="3"/>
       <c r="C15" s="13"/>
@@ -993,7 +1009,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="2"/>
       <c r="C16" s="13"/>
@@ -1002,7 +1018,7 @@
       <c r="F16" s="19"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="2"/>
       <c r="C17" s="13"/>
@@ -1011,7 +1027,7 @@
       <c r="F17" s="19"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="2"/>
       <c r="C18" s="13"/>
@@ -1020,7 +1036,7 @@
       <c r="F18" s="19"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="3"/>
       <c r="C19" s="13"/>
@@ -1029,7 +1045,7 @@
       <c r="F19" s="19"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="3"/>
       <c r="C20" s="13"/>
@@ -1038,7 +1054,7 @@
       <c r="F20" s="19"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="3"/>
       <c r="C21" s="13"/>
@@ -1047,7 +1063,7 @@
       <c r="F21" s="19"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="3"/>
       <c r="C22" s="13"/>
@@ -1056,7 +1072,7 @@
       <c r="F22" s="19"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="3"/>
       <c r="C23" s="13"/>
@@ -1065,7 +1081,7 @@
       <c r="F23" s="19"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="3"/>
       <c r="C24" s="13"/>
@@ -1074,7 +1090,7 @@
       <c r="F24" s="19"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
       <c r="B25" s="3"/>
       <c r="C25" s="13"/>
@@ -1083,7 +1099,7 @@
       <c r="F25" s="19"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="3"/>
       <c r="C26" s="13"/>
@@ -1092,7 +1108,7 @@
       <c r="F26" s="19"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="3"/>
       <c r="C27" s="13"/>
@@ -1101,7 +1117,7 @@
       <c r="F27" s="19"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
+    <row r="28" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18"/>
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
@@ -1110,569 +1126,569 @@
       <c r="F28" s="21"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="F30"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="F31"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="F32"/>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="F33"/>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="F34"/>
     </row>
-    <row r="35" spans="2:9" ht="17.25" customHeight="1">
+    <row r="35" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
       <c r="F35"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="F36"/>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="F37"/>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="F38"/>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="F39"/>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
       <c r="F40"/>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42"/>
       <c r="C42" s="7"/>
       <c r="D42"/>
       <c r="F42"/>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43"/>
       <c r="C43" s="7"/>
       <c r="D43"/>
       <c r="F43"/>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44"/>
       <c r="C44" s="7"/>
       <c r="D44"/>
       <c r="F44"/>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45"/>
       <c r="C45" s="7"/>
       <c r="D45"/>
       <c r="F45"/>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46"/>
       <c r="C46" s="7"/>
       <c r="D46"/>
       <c r="F46"/>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47"/>
       <c r="C47" s="7"/>
       <c r="D47"/>
       <c r="F47"/>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48"/>
       <c r="C48" s="7"/>
       <c r="D48"/>
       <c r="F48"/>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49"/>
       <c r="C49" s="7"/>
       <c r="D49"/>
       <c r="F49"/>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50"/>
       <c r="C50" s="7"/>
       <c r="D50"/>
       <c r="F50"/>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51"/>
       <c r="C51" s="7"/>
       <c r="D51"/>
       <c r="F51"/>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52"/>
       <c r="C52" s="7"/>
       <c r="D52"/>
       <c r="F52"/>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53"/>
       <c r="C53" s="7"/>
       <c r="D53"/>
       <c r="F53"/>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54"/>
       <c r="C54" s="7"/>
       <c r="D54"/>
       <c r="F54"/>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55"/>
       <c r="C55" s="7"/>
       <c r="D55"/>
       <c r="F55"/>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56"/>
       <c r="C56" s="7"/>
       <c r="D56"/>
       <c r="F56"/>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57"/>
       <c r="C57" s="7"/>
       <c r="D57"/>
       <c r="F57"/>
     </row>
-    <row r="58" spans="2:6">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58"/>
       <c r="C58" s="7"/>
       <c r="D58"/>
       <c r="F58"/>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59"/>
       <c r="C59" s="7"/>
       <c r="D59"/>
       <c r="F59"/>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60"/>
       <c r="C60" s="7"/>
       <c r="D60"/>
       <c r="F60"/>
     </row>
-    <row r="61" spans="2:6">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61"/>
       <c r="C61" s="7"/>
       <c r="D61"/>
       <c r="F61"/>
     </row>
-    <row r="62" spans="2:6">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62"/>
       <c r="C62" s="7"/>
       <c r="D62"/>
       <c r="F62"/>
     </row>
-    <row r="63" spans="2:6">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63"/>
       <c r="C63" s="7"/>
       <c r="D63"/>
       <c r="F63"/>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64"/>
       <c r="C64" s="7"/>
       <c r="D64"/>
       <c r="F64"/>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65"/>
       <c r="C65" s="7"/>
       <c r="D65"/>
       <c r="F65"/>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C66" s="7"/>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C67" s="7"/>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C68" s="7"/>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C69" s="7"/>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C70" s="7"/>
     </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C71" s="7"/>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="2:6">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="2:6">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C74" s="7"/>
     </row>
-    <row r="75" spans="2:6">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="2:6">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="2:6">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="2:6">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C78" s="7"/>
     </row>
-    <row r="79" spans="2:6">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="2:6">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="3:3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="3:3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="3:3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C84" s="7"/>
     </row>
-    <row r="85" spans="3:3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="3:3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C86" s="7"/>
     </row>
-    <row r="87" spans="3:3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="3:3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="3:3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C90" s="7"/>
     </row>
-    <row r="91" spans="3:3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C91" s="7"/>
     </row>
-    <row r="92" spans="3:3">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C92" s="7"/>
     </row>
-    <row r="93" spans="3:3">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="3:3">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C94" s="7"/>
     </row>
-    <row r="95" spans="3:3">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C96" s="7"/>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C97" s="7"/>
     </row>
-    <row r="98" spans="3:3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C98" s="7"/>
     </row>
-    <row r="99" spans="3:3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C99" s="7"/>
     </row>
-    <row r="100" spans="3:3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C100" s="7"/>
     </row>
-    <row r="101" spans="3:3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C101" s="7"/>
     </row>
-    <row r="102" spans="3:3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C102" s="7"/>
     </row>
-    <row r="103" spans="3:3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C103" s="7"/>
     </row>
-    <row r="104" spans="3:3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C104" s="7"/>
     </row>
-    <row r="105" spans="3:3">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C105" s="7"/>
     </row>
-    <row r="106" spans="3:3">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C106" s="7"/>
     </row>
-    <row r="107" spans="3:3">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C107" s="7"/>
     </row>
-    <row r="108" spans="3:3">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C108" s="7"/>
     </row>
-    <row r="109" spans="3:3">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C109" s="7"/>
     </row>
-    <row r="110" spans="3:3">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C110" s="7"/>
     </row>
-    <row r="111" spans="3:3">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C111" s="7"/>
     </row>
-    <row r="112" spans="3:3">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C112" s="7"/>
     </row>
-    <row r="113" spans="3:3">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C113" s="7"/>
     </row>
-    <row r="114" spans="3:3">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C114" s="7"/>
     </row>
-    <row r="115" spans="3:3">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C115" s="7"/>
     </row>
-    <row r="116" spans="3:3">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C116" s="7"/>
     </row>
-    <row r="117" spans="3:3">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C117" s="7"/>
     </row>
-    <row r="118" spans="3:3">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C118" s="7"/>
     </row>
-    <row r="119" spans="3:3">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C119" s="7"/>
     </row>
-    <row r="120" spans="3:3">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C120" s="7"/>
     </row>
-    <row r="121" spans="3:3">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C121" s="7"/>
     </row>
-    <row r="122" spans="3:3">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C122" s="7"/>
     </row>
-    <row r="123" spans="3:3">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C123" s="7"/>
     </row>
-    <row r="124" spans="3:3">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C124" s="7"/>
     </row>
-    <row r="125" spans="3:3">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C125" s="7"/>
     </row>
-    <row r="126" spans="3:3">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C126" s="7"/>
     </row>
-    <row r="127" spans="3:3">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C127" s="7"/>
     </row>
-    <row r="128" spans="3:3">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C128" s="7"/>
     </row>
-    <row r="129" spans="3:3">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C129" s="7"/>
     </row>
-    <row r="130" spans="3:3">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C130" s="7"/>
     </row>
-    <row r="131" spans="3:3">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C131" s="7"/>
     </row>
-    <row r="132" spans="3:3">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C132" s="7"/>
     </row>
-    <row r="133" spans="3:3">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C133" s="7"/>
     </row>
-    <row r="134" spans="3:3">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C134" s="7"/>
     </row>
-    <row r="135" spans="3:3">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C135" s="7"/>
     </row>
-    <row r="136" spans="3:3">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C136" s="7"/>
     </row>
-    <row r="137" spans="3:3">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C137" s="7"/>
     </row>
-    <row r="138" spans="3:3">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C138" s="7"/>
     </row>
-    <row r="139" spans="3:3">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C139" s="7"/>
     </row>
-    <row r="140" spans="3:3">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C140" s="7"/>
     </row>
-    <row r="141" spans="3:3">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C141" s="7"/>
     </row>
-    <row r="142" spans="3:3">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C142" s="7"/>
     </row>
-    <row r="143" spans="3:3">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C143" s="7"/>
     </row>
-    <row r="144" spans="3:3">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C144" s="7"/>
     </row>
-    <row r="145" spans="3:3">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C145" s="7"/>
     </row>
-    <row r="146" spans="3:3">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C146" s="7"/>
     </row>
-    <row r="147" spans="3:3">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C147" s="7"/>
     </row>
-    <row r="148" spans="3:3">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C148" s="7"/>
     </row>
-    <row r="149" spans="3:3">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C149" s="7"/>
     </row>
-    <row r="150" spans="3:3">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C150" s="7"/>
     </row>
-    <row r="151" spans="3:3">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C151" s="7"/>
     </row>
-    <row r="152" spans="3:3">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C152" s="7"/>
     </row>
-    <row r="153" spans="3:3">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C153" s="7"/>
     </row>
-    <row r="154" spans="3:3">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C154" s="7"/>
     </row>
-    <row r="155" spans="3:3">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C155" s="7"/>
     </row>
-    <row r="156" spans="3:3">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C156" s="7"/>
     </row>
-    <row r="157" spans="3:3">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C157" s="7"/>
     </row>
-    <row r="158" spans="3:3">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C158" s="7"/>
     </row>
-    <row r="159" spans="3:3">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C159" s="7"/>
     </row>
-    <row r="160" spans="3:3">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C160" s="7"/>
     </row>
-    <row r="161" spans="3:3">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C161" s="7"/>
     </row>
-    <row r="162" spans="3:3">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C162" s="7"/>
     </row>
-    <row r="163" spans="3:3">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C163" s="7"/>
     </row>
-    <row r="164" spans="3:3">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C164" s="7"/>
     </row>
-    <row r="165" spans="3:3">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C165" s="7"/>
     </row>
-    <row r="166" spans="3:3">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C166" s="7"/>
     </row>
-    <row r="167" spans="3:3">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C167" s="7"/>
     </row>
-    <row r="168" spans="3:3">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C168" s="7"/>
     </row>
-    <row r="169" spans="3:3">
+    <row r="169" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C169" s="7"/>
     </row>
-    <row r="170" spans="3:3">
+    <row r="170" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C170" s="7"/>
     </row>
-    <row r="171" spans="3:3">
+    <row r="171" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C171" s="7"/>
     </row>
-    <row r="172" spans="3:3">
+    <row r="172" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C172" s="7"/>
     </row>
-    <row r="173" spans="3:3">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C173" s="7"/>
     </row>
-    <row r="174" spans="3:3">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C174" s="7"/>
     </row>
-    <row r="175" spans="3:3">
+    <row r="175" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C175" s="7"/>
     </row>
-    <row r="176" spans="3:3">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C176" s="7"/>
     </row>
-    <row r="177" spans="3:3">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C177" s="7"/>
     </row>
-    <row r="178" spans="3:3">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C178" s="7"/>
     </row>
-    <row r="179" spans="3:3">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C179" s="7"/>
     </row>
   </sheetData>
@@ -1690,22 +1706,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8A9FBF-4EDA-4C4E-93FD-9597C5CD5E29}">
   <dimension ref="A1:M179"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="9" customWidth="1"/>
     <col min="2" max="2" width="31.5" style="9" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -1714,7 +1730,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="14"/>
@@ -1723,7 +1739,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="14"/>
@@ -1732,7 +1748,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="14"/>
@@ -1741,8 +1757,8 @@
       <c r="F4" s="17"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="17.25" customHeight="1" thickBot="1"/>
-    <row r="7" spans="1:13" ht="17.25" customHeight="1">
+    <row r="6" spans="1:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="12"/>
       <c r="D7" s="36" t="s">
@@ -1756,7 +1772,7 @@
       <c r="I7" s="8"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13" ht="18" thickBot="1">
+    <row r="8" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="31" t="s">
         <v>2</v>
@@ -1777,7 +1793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="18"/>
       <c r="B9" s="26" t="s">
         <v>14</v>
@@ -1798,7 +1814,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
       <c r="B10" s="2"/>
       <c r="C10" s="13"/>
@@ -1807,7 +1823,7 @@
       <c r="F10" s="19"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="2"/>
       <c r="C11" s="13"/>
@@ -1816,7 +1832,7 @@
       <c r="F11" s="19"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="3"/>
       <c r="C12" s="13"/>
@@ -1825,7 +1841,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="3"/>
       <c r="C13" s="13"/>
@@ -1834,7 +1850,7 @@
       <c r="F13" s="19"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="3"/>
       <c r="C14" s="13"/>
@@ -1843,7 +1859,7 @@
       <c r="F14" s="19"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="3"/>
       <c r="C15" s="13"/>
@@ -1852,7 +1868,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="2"/>
       <c r="C16" s="13"/>
@@ -1861,7 +1877,7 @@
       <c r="F16" s="19"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="2"/>
       <c r="C17" s="13"/>
@@ -1870,7 +1886,7 @@
       <c r="F17" s="19"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="2"/>
       <c r="C18" s="13"/>
@@ -1879,7 +1895,7 @@
       <c r="F18" s="19"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="3"/>
       <c r="C19" s="13"/>
@@ -1888,7 +1904,7 @@
       <c r="F19" s="19"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="3"/>
       <c r="C20" s="13"/>
@@ -1897,7 +1913,7 @@
       <c r="F20" s="19"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
       <c r="B21" s="3"/>
       <c r="C21" s="13"/>
@@ -1906,7 +1922,7 @@
       <c r="F21" s="19"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
       <c r="B22" s="3"/>
       <c r="C22" s="13"/>
@@ -1915,7 +1931,7 @@
       <c r="F22" s="19"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="3"/>
       <c r="C23" s="13"/>
@@ -1924,7 +1940,7 @@
       <c r="F23" s="19"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="3"/>
       <c r="C24" s="13"/>
@@ -1933,7 +1949,7 @@
       <c r="F24" s="19"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
       <c r="B25" s="3"/>
       <c r="C25" s="13"/>
@@ -1942,7 +1958,7 @@
       <c r="F25" s="19"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="3"/>
       <c r="C26" s="13"/>
@@ -1951,7 +1967,7 @@
       <c r="F26" s="19"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="3"/>
       <c r="C27" s="13"/>
@@ -1960,7 +1976,7 @@
       <c r="F27" s="19"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="17.25" customHeight="1" thickBot="1">
+    <row r="28" spans="1:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18"/>
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
@@ -1969,569 +1985,569 @@
       <c r="F28" s="21"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="F29"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="F30"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="F31"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="F32"/>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="F33"/>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="F34"/>
     </row>
-    <row r="35" spans="2:9" ht="17.25" customHeight="1">
+    <row r="35" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
       <c r="F35"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="F36"/>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="F37"/>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="F38"/>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="F39"/>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
       <c r="F40"/>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42"/>
       <c r="C42" s="7"/>
       <c r="D42"/>
       <c r="F42"/>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43"/>
       <c r="C43" s="7"/>
       <c r="D43"/>
       <c r="F43"/>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44"/>
       <c r="C44" s="7"/>
       <c r="D44"/>
       <c r="F44"/>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45"/>
       <c r="C45" s="7"/>
       <c r="D45"/>
       <c r="F45"/>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46"/>
       <c r="C46" s="7"/>
       <c r="D46"/>
       <c r="F46"/>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47"/>
       <c r="C47" s="7"/>
       <c r="D47"/>
       <c r="F47"/>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48"/>
       <c r="C48" s="7"/>
       <c r="D48"/>
       <c r="F48"/>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49"/>
       <c r="C49" s="7"/>
       <c r="D49"/>
       <c r="F49"/>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50"/>
       <c r="C50" s="7"/>
       <c r="D50"/>
       <c r="F50"/>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51"/>
       <c r="C51" s="7"/>
       <c r="D51"/>
       <c r="F51"/>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52"/>
       <c r="C52" s="7"/>
       <c r="D52"/>
       <c r="F52"/>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53"/>
       <c r="C53" s="7"/>
       <c r="D53"/>
       <c r="F53"/>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54"/>
       <c r="C54" s="7"/>
       <c r="D54"/>
       <c r="F54"/>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55"/>
       <c r="C55" s="7"/>
       <c r="D55"/>
       <c r="F55"/>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56"/>
       <c r="C56" s="7"/>
       <c r="D56"/>
       <c r="F56"/>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57"/>
       <c r="C57" s="7"/>
       <c r="D57"/>
       <c r="F57"/>
     </row>
-    <row r="58" spans="2:6">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58"/>
       <c r="C58" s="7"/>
       <c r="D58"/>
       <c r="F58"/>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59"/>
       <c r="C59" s="7"/>
       <c r="D59"/>
       <c r="F59"/>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60"/>
       <c r="C60" s="7"/>
       <c r="D60"/>
       <c r="F60"/>
     </row>
-    <row r="61" spans="2:6">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61"/>
       <c r="C61" s="7"/>
       <c r="D61"/>
       <c r="F61"/>
     </row>
-    <row r="62" spans="2:6">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62"/>
       <c r="C62" s="7"/>
       <c r="D62"/>
       <c r="F62"/>
     </row>
-    <row r="63" spans="2:6">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63"/>
       <c r="C63" s="7"/>
       <c r="D63"/>
       <c r="F63"/>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64"/>
       <c r="C64" s="7"/>
       <c r="D64"/>
       <c r="F64"/>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65"/>
       <c r="C65" s="7"/>
       <c r="D65"/>
       <c r="F65"/>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C66" s="7"/>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C67" s="7"/>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C68" s="7"/>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C69" s="7"/>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C70" s="7"/>
     </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C71" s="7"/>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C72" s="7"/>
     </row>
-    <row r="73" spans="2:6">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="2:6">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C74" s="7"/>
     </row>
-    <row r="75" spans="2:6">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="2:6">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C76" s="7"/>
     </row>
-    <row r="77" spans="2:6">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C77" s="7"/>
     </row>
-    <row r="78" spans="2:6">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C78" s="7"/>
     </row>
-    <row r="79" spans="2:6">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C79" s="7"/>
     </row>
-    <row r="80" spans="2:6">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C80" s="7"/>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C81" s="7"/>
     </row>
-    <row r="82" spans="3:3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C82" s="7"/>
     </row>
-    <row r="83" spans="3:3">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C83" s="7"/>
     </row>
-    <row r="84" spans="3:3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C84" s="7"/>
     </row>
-    <row r="85" spans="3:3">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C85" s="7"/>
     </row>
-    <row r="86" spans="3:3">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C86" s="7"/>
     </row>
-    <row r="87" spans="3:3">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C87" s="7"/>
     </row>
-    <row r="88" spans="3:3">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C88" s="7"/>
     </row>
-    <row r="89" spans="3:3">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C89" s="7"/>
     </row>
-    <row r="90" spans="3:3">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C90" s="7"/>
     </row>
-    <row r="91" spans="3:3">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C91" s="7"/>
     </row>
-    <row r="92" spans="3:3">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C92" s="7"/>
     </row>
-    <row r="93" spans="3:3">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C93" s="7"/>
     </row>
-    <row r="94" spans="3:3">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C94" s="7"/>
     </row>
-    <row r="95" spans="3:3">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C95" s="7"/>
     </row>
-    <row r="96" spans="3:3">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C96" s="7"/>
     </row>
-    <row r="97" spans="3:3">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C97" s="7"/>
     </row>
-    <row r="98" spans="3:3">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C98" s="7"/>
     </row>
-    <row r="99" spans="3:3">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C99" s="7"/>
     </row>
-    <row r="100" spans="3:3">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C100" s="7"/>
     </row>
-    <row r="101" spans="3:3">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C101" s="7"/>
     </row>
-    <row r="102" spans="3:3">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C102" s="7"/>
     </row>
-    <row r="103" spans="3:3">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C103" s="7"/>
     </row>
-    <row r="104" spans="3:3">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C104" s="7"/>
     </row>
-    <row r="105" spans="3:3">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C105" s="7"/>
     </row>
-    <row r="106" spans="3:3">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C106" s="7"/>
     </row>
-    <row r="107" spans="3:3">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C107" s="7"/>
     </row>
-    <row r="108" spans="3:3">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C108" s="7"/>
     </row>
-    <row r="109" spans="3:3">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C109" s="7"/>
     </row>
-    <row r="110" spans="3:3">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C110" s="7"/>
     </row>
-    <row r="111" spans="3:3">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C111" s="7"/>
     </row>
-    <row r="112" spans="3:3">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C112" s="7"/>
     </row>
-    <row r="113" spans="3:3">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C113" s="7"/>
     </row>
-    <row r="114" spans="3:3">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C114" s="7"/>
     </row>
-    <row r="115" spans="3:3">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C115" s="7"/>
     </row>
-    <row r="116" spans="3:3">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C116" s="7"/>
     </row>
-    <row r="117" spans="3:3">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C117" s="7"/>
     </row>
-    <row r="118" spans="3:3">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C118" s="7"/>
     </row>
-    <row r="119" spans="3:3">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C119" s="7"/>
     </row>
-    <row r="120" spans="3:3">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C120" s="7"/>
     </row>
-    <row r="121" spans="3:3">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C121" s="7"/>
     </row>
-    <row r="122" spans="3:3">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C122" s="7"/>
     </row>
-    <row r="123" spans="3:3">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C123" s="7"/>
     </row>
-    <row r="124" spans="3:3">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C124" s="7"/>
     </row>
-    <row r="125" spans="3:3">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C125" s="7"/>
     </row>
-    <row r="126" spans="3:3">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C126" s="7"/>
     </row>
-    <row r="127" spans="3:3">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C127" s="7"/>
     </row>
-    <row r="128" spans="3:3">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C128" s="7"/>
     </row>
-    <row r="129" spans="3:3">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C129" s="7"/>
     </row>
-    <row r="130" spans="3:3">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C130" s="7"/>
     </row>
-    <row r="131" spans="3:3">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C131" s="7"/>
     </row>
-    <row r="132" spans="3:3">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C132" s="7"/>
     </row>
-    <row r="133" spans="3:3">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C133" s="7"/>
     </row>
-    <row r="134" spans="3:3">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C134" s="7"/>
     </row>
-    <row r="135" spans="3:3">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C135" s="7"/>
     </row>
-    <row r="136" spans="3:3">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C136" s="7"/>
     </row>
-    <row r="137" spans="3:3">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C137" s="7"/>
     </row>
-    <row r="138" spans="3:3">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C138" s="7"/>
     </row>
-    <row r="139" spans="3:3">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C139" s="7"/>
     </row>
-    <row r="140" spans="3:3">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C140" s="7"/>
     </row>
-    <row r="141" spans="3:3">
+    <row r="141" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C141" s="7"/>
     </row>
-    <row r="142" spans="3:3">
+    <row r="142" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C142" s="7"/>
     </row>
-    <row r="143" spans="3:3">
+    <row r="143" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C143" s="7"/>
     </row>
-    <row r="144" spans="3:3">
+    <row r="144" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C144" s="7"/>
     </row>
-    <row r="145" spans="3:3">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C145" s="7"/>
     </row>
-    <row r="146" spans="3:3">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C146" s="7"/>
     </row>
-    <row r="147" spans="3:3">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C147" s="7"/>
     </row>
-    <row r="148" spans="3:3">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C148" s="7"/>
     </row>
-    <row r="149" spans="3:3">
+    <row r="149" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C149" s="7"/>
     </row>
-    <row r="150" spans="3:3">
+    <row r="150" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C150" s="7"/>
     </row>
-    <row r="151" spans="3:3">
+    <row r="151" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C151" s="7"/>
     </row>
-    <row r="152" spans="3:3">
+    <row r="152" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C152" s="7"/>
     </row>
-    <row r="153" spans="3:3">
+    <row r="153" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C153" s="7"/>
     </row>
-    <row r="154" spans="3:3">
+    <row r="154" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C154" s="7"/>
     </row>
-    <row r="155" spans="3:3">
+    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C155" s="7"/>
     </row>
-    <row r="156" spans="3:3">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C156" s="7"/>
     </row>
-    <row r="157" spans="3:3">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C157" s="7"/>
     </row>
-    <row r="158" spans="3:3">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C158" s="7"/>
     </row>
-    <row r="159" spans="3:3">
+    <row r="159" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C159" s="7"/>
     </row>
-    <row r="160" spans="3:3">
+    <row r="160" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C160" s="7"/>
     </row>
-    <row r="161" spans="3:3">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C161" s="7"/>
     </row>
-    <row r="162" spans="3:3">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C162" s="7"/>
     </row>
-    <row r="163" spans="3:3">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C163" s="7"/>
     </row>
-    <row r="164" spans="3:3">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C164" s="7"/>
     </row>
-    <row r="165" spans="3:3">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C165" s="7"/>
     </row>
-    <row r="166" spans="3:3">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C166" s="7"/>
     </row>
-    <row r="167" spans="3:3">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C167" s="7"/>
     </row>
-    <row r="168" spans="3:3">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C168" s="7"/>
     </row>
-    <row r="169" spans="3:3">
+    <row r="169" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C169" s="7"/>
     </row>
-    <row r="170" spans="3:3">
+    <row r="170" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C170" s="7"/>
     </row>
-    <row r="171" spans="3:3">
+    <row r="171" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C171" s="7"/>
     </row>
-    <row r="172" spans="3:3">
+    <row r="172" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C172" s="7"/>
     </row>
-    <row r="173" spans="3:3">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C173" s="7"/>
     </row>
-    <row r="174" spans="3:3">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C174" s="7"/>
     </row>
-    <row r="175" spans="3:3">
+    <row r="175" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C175" s="7"/>
     </row>
-    <row r="176" spans="3:3">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C176" s="7"/>
     </row>
-    <row r="177" spans="3:3">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C177" s="7"/>
     </row>
-    <row r="178" spans="3:3">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C178" s="7"/>
     </row>
-    <row r="179" spans="3:3">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C179" s="7"/>
     </row>
   </sheetData>
@@ -2553,9 +2569,9 @@
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C3" s="39" t="s">
         <v>6</v>
       </c>
@@ -2564,16 +2580,16 @@
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
     </row>
-    <row r="5" spans="2:8" ht="17.25" customHeight="1"/>
-    <row r="6" spans="2:8" ht="17.25" customHeight="1" thickBot="1"/>
-    <row r="7" spans="2:8" ht="16.5" customHeight="1">
+    <row r="5" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="12"/>
       <c r="D7" s="36" t="s">
@@ -2588,7 +2604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="18" thickBot="1">
+    <row r="8" spans="2:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="31" t="s">
         <v>2</v>
       </c>
@@ -2608,7 +2624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="26"/>
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
@@ -2616,7 +2632,7 @@
       <c r="F9" s="30"/>
       <c r="G9" s="29"/>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="13"/>
       <c r="D10" s="19"/>
@@ -2624,7 +2640,7 @@
       <c r="F10" s="20"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="13"/>
       <c r="D11" s="19"/>
@@ -2632,7 +2648,7 @@
       <c r="F11" s="20"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="13"/>
       <c r="D12" s="19"/>
@@ -2640,7 +2656,7 @@
       <c r="F12" s="20"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="13"/>
       <c r="D13" s="19"/>
@@ -2648,7 +2664,7 @@
       <c r="F13" s="20"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="13"/>
       <c r="D14" s="19"/>
@@ -2656,7 +2672,7 @@
       <c r="F14" s="20"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="13"/>
       <c r="D15" s="19"/>
@@ -2664,7 +2680,7 @@
       <c r="F15" s="20"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="13"/>
       <c r="D16" s="19"/>
@@ -2672,7 +2688,7 @@
       <c r="F16" s="20"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="13"/>
       <c r="D17" s="19"/>
@@ -2680,7 +2696,7 @@
       <c r="F17" s="20"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="13"/>
       <c r="D18" s="19"/>
@@ -2688,7 +2704,7 @@
       <c r="F18" s="20"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="13"/>
       <c r="D19" s="19"/>
@@ -2696,7 +2712,7 @@
       <c r="F19" s="20"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="13"/>
       <c r="D20" s="19"/>
@@ -2704,7 +2720,7 @@
       <c r="F20" s="20"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="13"/>
       <c r="D21" s="19"/>
@@ -2712,7 +2728,7 @@
       <c r="F21" s="20"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="13"/>
       <c r="D22" s="19"/>
@@ -2720,7 +2736,7 @@
       <c r="F22" s="20"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" s="13"/>
       <c r="D23" s="19"/>
@@ -2728,7 +2744,7 @@
       <c r="F23" s="20"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="13"/>
       <c r="D24" s="19"/>
@@ -2736,7 +2752,7 @@
       <c r="F24" s="20"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
       <c r="C25" s="13"/>
       <c r="D25" s="19"/>
@@ -2744,7 +2760,7 @@
       <c r="F25" s="20"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="13"/>
       <c r="D26" s="19"/>
@@ -2752,7 +2768,7 @@
       <c r="F26" s="20"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="2:7" ht="17.25" customHeight="1">
+    <row r="27" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
       <c r="C27" s="13"/>
       <c r="D27" s="19"/>
@@ -2760,7 +2776,7 @@
       <c r="F27" s="20"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="2:7" ht="17.25" customHeight="1" thickBot="1">
+    <row r="28" spans="2:7" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
       <c r="D28" s="21"/>
@@ -2768,7 +2784,7 @@
       <c r="F28" s="22"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="2:7" ht="17.25" customHeight="1">
+    <row r="29" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="23"/>
       <c r="D29" s="16"/>
       <c r="F29" s="16"/>
@@ -2788,16 +2804,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C4:H10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="15" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -2805,7 +2821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>9</v>
       </c>
@@ -2819,7 +2835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -2827,21 +2843,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="3:8">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D10" s="15"/>
     </row>
   </sheetData>
